--- a/graph_generation/results/hermes_llama2/level_3/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_3/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -46,28 +46,27 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1
- K 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Q 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P
+ A 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -83,24 +82,25 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 1 0 0 0 0 0 0 0 1 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 1 0 0 0 1
- F 0 0 0 0 1 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1
- M 0 0 0 0 1 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 0 0 1 0 1 0 0 0 0 1
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ N 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -116,30 +116,23 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- O 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L
+ A 0 1 0 0 0 0 0 1 0 1 1 1
+ B 1 0 1 0 0 0 1 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 0 1
+ K 1 0 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 1 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -155,25 +148,26 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 1 0 0 0 0 0 1
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- N 0 0 0 0 1 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ L 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -189,26 +183,27 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1
- C 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0
- K 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- O 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ B 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ K 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ L 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -224,24 +219,23 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 1 0 0 0 0 0 0 1 1 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 1 0 0 1 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 1 0 0 0 0 0 0 0 0 0 0 1 1
- K 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1
- M 0 0 0 0 0 0 0 0 0 1 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L
+ A 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 1 0 1 1
+ C 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 1
+ L 0 1 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -257,23 +251,31 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L
- A 0 1 1 0 0 1 1 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 1 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 0 0
- G 1 0 0 0 0 0 0 1 0 0 1 0
- H 0 0 0 0 0 0 1 0 1 1 0 1
- I 0 0 0 0 0 0 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1
- L 0 0 0 0 0 0 0 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -289,24 +291,27 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 1
- D 0 0 1 0 1 1 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 1 0 0 1 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1
- M 0 0 1 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -322,25 +327,24 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 0 0 0 1
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 1 1
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- N 0 0 0 0 0 1 0 1 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 1 1
+ D 0 0 1 0 1 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0 1
+ K 1 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 1 0 0 0 0 0 0 0 1 0 0
+ M 0 0 1 0 0 0 0 0 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node G? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -356,72 +360,57 @@
 Solution: A -&gt; B -&gt; F -&gt; G
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0
- B 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1
- C 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- J 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- O 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; E -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; K -&gt; J</t>
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 1 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 1 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>A -&gt; J</t>
   </si>
   <si>
-    <t>A -&gt; G -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; F -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; J</t>
+    <t>A -&gt; B -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; D -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; M -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the sequence of nodes in the shortest path from node A to node J:
+A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
+The shortest path has a length of 5.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>The shortest path from node A to node J is A -&gt; B -&gt; F -&gt; G -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; F -&gt; G -&gt; J.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B and F) by adding the distance to the current node (A) to the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (J) is visited.
-Following this process, we get the following sequence of nodes:
-A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
-So, the shortest path from node A to node J is A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is not possible as there is no connection between nodes A and J in the given adjacency matrix.</t>
   </si>
   <si>
     <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the sequence of nodes in the shortest path from node A to node J:
@@ -429,19 +418,22 @@
 The shortest path has a length of 3.</t>
   </si>
   <si>
-    <t>The shortest path from node A to node J is A -&gt; C -&gt; F -&gt; J.</t>
-  </si>
-  <si>
     <t>The shortest path from node A to node J is not possible as there is no connection between nodes A and J.</t>
   </si>
   <si>
+    <t>The shortest path from node A to node J is A -&gt; C -&gt; L -&gt; M -&gt; J.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is not possible as there is no connection between nodes A and J in the given adjacency matrix.</t>
+  </si>
+  <si>
     <t>Wrong</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -473,33 +465,29 @@
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- V 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- W 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ D 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ V 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -536,36 +524,36 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ D 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- V 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ X 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Y 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Z 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -597,35 +585,37 @@
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -657,32 +647,37 @@
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Q 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -714,32 +709,33 @@
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- B 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -776,32 +772,32 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
- X 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ A 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ W 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -838,33 +834,33 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- B 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  H 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -896,33 +892,30 @@
 Solution: A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ W 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -959,32 +952,32 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ F 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
  G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ U 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Z 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -1021,69 +1014,72 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ D 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; E -&gt; F -&gt; H -&gt; P -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; K -&gt; P -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; L -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; H -&gt; K -&gt; M -&gt; P -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; M -&gt; N -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; H -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; O -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; Z -&gt; Y -&gt; H -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; M -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; G -&gt; I -&gt; J -&gt; L -&gt; N -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; W -&gt; X -&gt; Y -&gt; Z -&gt; Q -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; W -&gt; V -&gt; U -&gt; Q -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; I -&gt; J -&gt; K -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; J -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; J -&gt; K -&gt; M -&gt; N -&gt; Q -&gt; R -&gt; S -&gt; T</t>
   </si>
   <si>
     <t>The shortest path from node A to node T is A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R -&gt; T.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t>The shortest path from node A to node T is A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1115,37 +1111,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node S to node K? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0
- D 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- E 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- G 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- X 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node U to node C? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ D 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ F 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0
+ I 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ P 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ T 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+ U 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Z 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1177,31 +1174,30 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- E 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- H 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- V 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+What is the shortest path from node L to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ H 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ L 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
+ N 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ V 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1237,38 +1233,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node K to node U? Return the sequence of nodes in response.
+What is the shortest path from node H to node F? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0
- G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- M 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- P 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0
- S 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- V 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
- X 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
+ G 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ Q 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ S 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Z 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1300,33 +1296,35 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node I to node H? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- B 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0
- C 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- E 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node D to node B? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ C 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1
+ O 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ V 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1358,36 +1356,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node I to node C? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- H 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- O 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- R 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- V 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node A to node L? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
+ K 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ W 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Z 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1419,33 +1419,36 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node J to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- D 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1
- F 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0
- G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- O 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- S 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- T 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node P to node L? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1477,37 +1480,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node M to node K? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1
- F 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0
- G 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- W 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node Q to node U? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ J 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
+ L 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ U 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ X 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Y 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Z 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1539,37 +1543,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node N to node V? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
- C 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
- J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0
- N 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- T 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- U 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node A to node C? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ G 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ Q 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ Z 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1601,36 +1606,38 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node S to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- C 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- E 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- N 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- P 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- S 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
- T 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- W 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0
- X 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node J to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ O 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0
+ S 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Z 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node C? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1662,94 +1669,95 @@
  Z 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; Y -&gt; D -&gt; Z -&gt; C
  Given these examples, answer the following quesiton.
-What is the shortest path from node C to node K? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- E 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1
- Q 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0
- R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- T 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- Y 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>S -&gt; Y -&gt; F -&gt; C -&gt; M -&gt; U -&gt; K</t>
-  </si>
-  <si>
-    <t>A -&gt; M -&gt; E -&gt; H -&gt; K -&gt; N -&gt; F</t>
-  </si>
-  <si>
-    <t>K -&gt; O -&gt; N -&gt; R -&gt; U</t>
-  </si>
-  <si>
-    <t>I -&gt; H</t>
-  </si>
-  <si>
-    <t>I -&gt; B -&gt; J -&gt; C</t>
-  </si>
-  <si>
-    <t>J -&gt; K -&gt; C -&gt; O</t>
-  </si>
-  <si>
-    <t>M -&gt; B -&gt; F -&gt; A -&gt; K</t>
-  </si>
-  <si>
-    <t>N -&gt; C -&gt; G -&gt; O -&gt; V</t>
-  </si>
-  <si>
-    <t>S -&gt; W -&gt; M</t>
-  </si>
-  <si>
-    <t>C -&gt; Q -&gt; T -&gt; H -&gt; J -&gt; K</t>
-  </si>
-  <si>
-    <t>The shortest path from node S to node K is S -&gt; T -&gt; R -&gt; K.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node F is A -&gt; Y -&gt; D -&gt; Z -&gt; C -&gt; F.</t>
-  </si>
-  <si>
-    <t>The shortest path from node K to node U is K -&gt; L -&gt; N -&gt; U.</t>
-  </si>
-  <si>
-    <t>The shortest path from node I to node H is I -&gt; S -&gt; T -&gt; H.</t>
-  </si>
-  <si>
-    <t>The shortest path from node I to node C is I -&gt; Y -&gt; D -&gt; Z -&gt; C.</t>
-  </si>
-  <si>
-    <t>The shortest path from node J to node O is J -&gt; I -&gt; M -&gt; O.</t>
-  </si>
-  <si>
-    <t>The shortest path from node M to node K is M -&gt; Y -&gt; D -&gt; Z -&gt; K.</t>
-  </si>
-  <si>
-    <t>The shortest path from node N to node V is N -&gt; Y -&gt; D -&gt; Z -&gt; C -&gt; V.</t>
-  </si>
-  <si>
-    <t>The shortest path from node S to node M is S -&gt; R -&gt; M.</t>
-  </si>
-  <si>
-    <t>The shortest path from node C to node K is C -&gt; J -&gt; K.</t>
+What is the shortest path from node B to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ N 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Q 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ S 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ U 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>U -&gt; H -&gt; E -&gt; D -&gt; I -&gt; F -&gt; N -&gt; T -&gt; C</t>
+  </si>
+  <si>
+    <t>L -&gt; J -&gt; H -&gt; C -&gt; N</t>
+  </si>
+  <si>
+    <t>H -&gt; M -&gt; N -&gt; T -&gt; Z -&gt; F</t>
+  </si>
+  <si>
+    <t>D -&gt; T -&gt; B</t>
+  </si>
+  <si>
+    <t>A -&gt; P -&gt; K -&gt; C -&gt; Z -&gt; M -&gt; L</t>
+  </si>
+  <si>
+    <t>P -&gt; I -&gt; K -&gt; N -&gt; A -&gt; D -&gt; R -&gt; L</t>
+  </si>
+  <si>
+    <t>Q -&gt; K -&gt; M -&gt; O -&gt; N -&gt; D -&gt; L -&gt; X -&gt; G -&gt; P -&gt; C -&gt; U</t>
+  </si>
+  <si>
+    <t>A -&gt; M -&gt; L -&gt; B -&gt; Q -&gt; T -&gt; N -&gt; O -&gt; D -&gt; S -&gt; C</t>
+  </si>
+  <si>
+    <t>J -&gt; N -&gt; I -&gt; V</t>
+  </si>
+  <si>
+    <t>B -&gt; U -&gt; J -&gt; N -&gt; F -&gt; D -&gt; Q -&gt; G -&gt; T -&gt; P</t>
+  </si>
+  <si>
+    <t>The shortest path from node U to node C is U -&gt; Y -&gt; D -&gt; Z -&gt; C.</t>
+  </si>
+  <si>
+    <t>The shortest path from node L to node N is L -&gt; M -&gt; N.</t>
+  </si>
+  <si>
+    <t>The shortest path from node H to node F is H -&gt; I -&gt; J -&gt; F.</t>
+  </si>
+  <si>
+    <t>The shortest path from node D to node B is D -&gt; Y -&gt; A -&gt; B.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node L is A -&gt; Y -&gt; D -&gt; Z -&gt; C -&gt; L.</t>
+  </si>
+  <si>
+    <t>The shortest path from node P to node L is P -&gt; U -&gt; V -&gt; L.</t>
+  </si>
+  <si>
+    <t>The shortest path from node Q to node U is Q -&gt; S -&gt; T -&gt; U.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node C is A -&gt; Y -&gt; D -&gt; Z -&gt; C.</t>
+  </si>
+  <si>
+    <t>The shortest path from node J to node V is J -&gt; I -&gt; Y -&gt; D -&gt; Z -&gt; C -&gt; V.</t>
+  </si>
+  <si>
+    <t>The shortest path from node B to node P is B -&gt; E -&gt; G -&gt; P.</t>
   </si>
 </sst>
 </file>
@@ -2135,10 +2143,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2149,10 +2157,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2163,10 +2171,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2174,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2188,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2202,13 +2210,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2216,13 +2224,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2230,13 +2238,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2244,13 +2252,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2258,13 +2266,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2296,142 +2304,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2463,142 +2471,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
